--- a/data/case1/5/V2_3.xlsx
+++ b/data/case1/5/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999483359803</v>
+        <v>0.9999999947744862</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99413536641724232</v>
+        <v>0.9940415142150969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97256310751887742</v>
+        <v>0.97271369209994196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96500987378721437</v>
+        <v>0.96285143992385414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95793840948329345</v>
+        <v>0.95339761710654047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94080432707416484</v>
+        <v>0.93019289452123455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93859676026551742</v>
+        <v>0.92895141626956645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93621529248273405</v>
+        <v>0.92783911189247648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93602231741615949</v>
+        <v>0.92993511611512081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93678726146112412</v>
+        <v>0.93301248950780002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93702832737159258</v>
+        <v>0.93186267768874798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93774411778602884</v>
+        <v>0.92993116101800555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94317899641101233</v>
+        <v>0.92250843467513199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9464689430528217</v>
+        <v>0.91999236906642479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95087230225541575</v>
+        <v>0.9189899063001048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95666834734360218</v>
+        <v>0.91838851425527968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.97091281552469311</v>
+        <v>0.91859852446233625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.96980391461681781</v>
+        <v>0.91938419562445262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99060190872108034</v>
+        <v>0.99013538970749038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96147591996038173</v>
+        <v>0.95778106045693767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95348912080732207</v>
+        <v>0.95638252542500957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.94023652786978018</v>
+        <v>0.95511800077061837</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96210664759909426</v>
+        <v>0.9656780274632446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94193908830556006</v>
+        <v>0.95265626738472786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.93548181182173695</v>
+        <v>0.94619912119046146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93714861570895325</v>
+        <v>0.92653597926722009</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93230179563492088</v>
+        <v>0.92168762336171817</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91082805873114414</v>
+        <v>0.90020884470422957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89555628886490313</v>
+        <v>0.88493523035240484</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88898577669225487</v>
+        <v>0.87836434043783052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88133182926450515</v>
+        <v>0.87071011687597</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87965248096507942</v>
+        <v>0.86903075947866237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8791324662670208</v>
+        <v>0.86851074456960453</v>
       </c>
     </row>
   </sheetData>
